--- a/StructureDefinition-bemycarenetclaim.xlsx
+++ b/StructureDefinition-bemycarenetclaim.xlsx
@@ -674,7 +674,7 @@
     <t>Claim.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/bepatient)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
